--- a/v3_201908/belege/einbildungskraft/Annotation_Einbildungskraft_rest_20191026.xlsx
+++ b/v3_201908/belege/einbildungskraft/Annotation_Einbildungskraft_rest_20191026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/td/Github/alz/v3_201908/belege/einbildungskraft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3967CE92-63A3-5740-8166-6B4E900A196F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6693F3F3-AECE-8841-B210-C90319BBE135}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15960" xr2:uid="{87AC32E3-8EE3-404C-B4CE-7906750BB2A9}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="28040" windowHeight="15880" xr2:uid="{87AC32E3-8EE3-404C-B4CE-7906750BB2A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -941,11 +941,14 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="A2:F36"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="91.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="75.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
@@ -973,139 +976,139 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>165</v>
+        <v>92</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>166</v>
+        <v>98</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
+        <v>99</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>168</v>
+        <v>2</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>166</v>
@@ -1113,79 +1116,79 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>172</v>
@@ -1193,42 +1196,42 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1253,219 +1256,219 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>172</v>
@@ -1473,240 +1476,243 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F36">
+    <sortCondition ref="A2:A36"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{4F56E97B-2A33-FE40-BF77-310DE5D68699}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{B1C3FB2F-0933-6947-8378-7737504758FC}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{7589471C-1678-BD41-B150-2152D06BA67F}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{45F280F4-51DA-454E-92F3-818D97CEE7E3}"/>
-    <hyperlink ref="E7" r:id="rId5" xr:uid="{DE611030-BA5A-5E44-8AC1-8FC3ED17FB55}"/>
-    <hyperlink ref="E8" r:id="rId6" xr:uid="{673C6E60-BE47-C04A-B79C-E9578B2F4052}"/>
-    <hyperlink ref="E9" r:id="rId7" xr:uid="{FEEE7D20-CD70-AF45-BC64-BF57C03FDBF6}"/>
-    <hyperlink ref="E10" r:id="rId8" xr:uid="{373A3FC1-730E-CE40-AF0F-A3809048172D}"/>
-    <hyperlink ref="E11" r:id="rId9" xr:uid="{2E3D8139-F209-F242-8ED0-7BDDED122C94}"/>
-    <hyperlink ref="E12" r:id="rId10" xr:uid="{2A76FEB2-017B-A34F-A4DC-5539234931E3}"/>
-    <hyperlink ref="E13" r:id="rId11" xr:uid="{8FC4F41C-CD22-D648-9D2A-4C22471871F7}"/>
-    <hyperlink ref="E14" r:id="rId12" xr:uid="{B53F9E4D-BD26-7D43-A2C6-26D0F589F419}"/>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{4F56E97B-2A33-FE40-BF77-310DE5D68699}"/>
+    <hyperlink ref="E20" r:id="rId2" xr:uid="{B1C3FB2F-0933-6947-8378-7737504758FC}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{7589471C-1678-BD41-B150-2152D06BA67F}"/>
+    <hyperlink ref="E34" r:id="rId4" xr:uid="{45F280F4-51DA-454E-92F3-818D97CEE7E3}"/>
+    <hyperlink ref="E32" r:id="rId5" xr:uid="{DE611030-BA5A-5E44-8AC1-8FC3ED17FB55}"/>
+    <hyperlink ref="E11" r:id="rId6" xr:uid="{673C6E60-BE47-C04A-B79C-E9578B2F4052}"/>
+    <hyperlink ref="E18" r:id="rId7" xr:uid="{FEEE7D20-CD70-AF45-BC64-BF57C03FDBF6}"/>
+    <hyperlink ref="E16" r:id="rId8" xr:uid="{373A3FC1-730E-CE40-AF0F-A3809048172D}"/>
+    <hyperlink ref="E27" r:id="rId9" xr:uid="{2E3D8139-F209-F242-8ED0-7BDDED122C94}"/>
+    <hyperlink ref="E14" r:id="rId10" xr:uid="{2A76FEB2-017B-A34F-A4DC-5539234931E3}"/>
+    <hyperlink ref="E17" r:id="rId11" xr:uid="{8FC4F41C-CD22-D648-9D2A-4C22471871F7}"/>
+    <hyperlink ref="E28" r:id="rId12" xr:uid="{B53F9E4D-BD26-7D43-A2C6-26D0F589F419}"/>
     <hyperlink ref="E15" r:id="rId13" xr:uid="{5EBD9858-7E23-FB41-944E-E29E6921CC3F}"/>
-    <hyperlink ref="E16" r:id="rId14" xr:uid="{F5FD61A2-62F1-2B47-906F-7479D5F63291}"/>
-    <hyperlink ref="E17" r:id="rId15" xr:uid="{D646904D-EA8D-F142-ADC2-BEB89EA2B3C4}"/>
-    <hyperlink ref="E18" r:id="rId16" xr:uid="{62E2F217-5C3E-144B-8064-0134A5E3657F}"/>
-    <hyperlink ref="E19" r:id="rId17" xr:uid="{798F7595-D4B1-AF47-814C-79DE719B51B1}"/>
-    <hyperlink ref="E20" r:id="rId18" xr:uid="{25A9C5A3-2088-9D4D-92DE-D0F60A86D835}"/>
-    <hyperlink ref="E21" r:id="rId19" xr:uid="{ACE2BF53-BB56-2341-B8DA-63B2DCC67DF6}"/>
-    <hyperlink ref="E22" r:id="rId20" xr:uid="{10DE9CD5-7F8B-0647-B6D8-E4400EFA99CC}"/>
-    <hyperlink ref="E23" r:id="rId21" xr:uid="{7BFC38D9-DA26-974C-AAF1-27B05CB9858F}"/>
-    <hyperlink ref="E24" r:id="rId22" xr:uid="{C9E550B1-F5EB-364C-B78F-862281E83235}"/>
-    <hyperlink ref="E25" r:id="rId23" xr:uid="{14E11E42-114C-974A-A756-7CF3F9DCA937}"/>
-    <hyperlink ref="E26" r:id="rId24" xr:uid="{D3829E48-186F-7941-B70C-2A0F78C38DFD}"/>
-    <hyperlink ref="E27" r:id="rId25" xr:uid="{2A31B664-8985-684C-8FCF-85851F6377EF}"/>
-    <hyperlink ref="E28" r:id="rId26" xr:uid="{478BB226-59FC-8745-B0CB-ADE5310C280D}"/>
-    <hyperlink ref="E29" r:id="rId27" xr:uid="{269D087B-EF72-AA43-B330-E65D42430C0E}"/>
-    <hyperlink ref="E30" r:id="rId28" xr:uid="{6693D740-8B8C-1648-AFB5-C8F09F35E946}"/>
-    <hyperlink ref="E31" r:id="rId29" xr:uid="{279D3981-4FBC-4947-B45A-EB59F17ADB47}"/>
-    <hyperlink ref="E32" r:id="rId30" xr:uid="{DE9792A1-DF78-1648-A2BE-F65D3E7156C7}"/>
-    <hyperlink ref="E33" r:id="rId31" xr:uid="{34BFB42F-030E-7C42-9BF0-01AF85EBE27C}"/>
-    <hyperlink ref="E34" r:id="rId32" xr:uid="{AB0C8EA8-5FD2-B54D-8982-0D1FF73E221B}"/>
-    <hyperlink ref="E35" r:id="rId33" xr:uid="{789C2AF0-BB44-AD49-9A56-AFD8950FE23A}"/>
-    <hyperlink ref="E36" r:id="rId34" xr:uid="{48EE5CE5-8663-0F40-BD45-F13F36505128}"/>
+    <hyperlink ref="E9" r:id="rId14" xr:uid="{F5FD61A2-62F1-2B47-906F-7479D5F63291}"/>
+    <hyperlink ref="E13" r:id="rId15" xr:uid="{D646904D-EA8D-F142-ADC2-BEB89EA2B3C4}"/>
+    <hyperlink ref="E29" r:id="rId16" xr:uid="{62E2F217-5C3E-144B-8064-0134A5E3657F}"/>
+    <hyperlink ref="E30" r:id="rId17" xr:uid="{798F7595-D4B1-AF47-814C-79DE719B51B1}"/>
+    <hyperlink ref="E35" r:id="rId18" xr:uid="{25A9C5A3-2088-9D4D-92DE-D0F60A86D835}"/>
+    <hyperlink ref="E12" r:id="rId19" xr:uid="{ACE2BF53-BB56-2341-B8DA-63B2DCC67DF6}"/>
+    <hyperlink ref="E31" r:id="rId20" xr:uid="{10DE9CD5-7F8B-0647-B6D8-E4400EFA99CC}"/>
+    <hyperlink ref="E10" r:id="rId21" xr:uid="{7BFC38D9-DA26-974C-AAF1-27B05CB9858F}"/>
+    <hyperlink ref="E19" r:id="rId22" xr:uid="{C9E550B1-F5EB-364C-B78F-862281E83235}"/>
+    <hyperlink ref="E26" r:id="rId23" xr:uid="{14E11E42-114C-974A-A756-7CF3F9DCA937}"/>
+    <hyperlink ref="E23" r:id="rId24" xr:uid="{D3829E48-186F-7941-B70C-2A0F78C38DFD}"/>
+    <hyperlink ref="E25" r:id="rId25" xr:uid="{2A31B664-8985-684C-8FCF-85851F6377EF}"/>
+    <hyperlink ref="E21" r:id="rId26" xr:uid="{478BB226-59FC-8745-B0CB-ADE5310C280D}"/>
+    <hyperlink ref="E22" r:id="rId27" xr:uid="{269D087B-EF72-AA43-B330-E65D42430C0E}"/>
+    <hyperlink ref="E36" r:id="rId28" xr:uid="{6693D740-8B8C-1648-AFB5-C8F09F35E946}"/>
+    <hyperlink ref="E33" r:id="rId29" xr:uid="{279D3981-4FBC-4947-B45A-EB59F17ADB47}"/>
+    <hyperlink ref="E24" r:id="rId30" xr:uid="{DE9792A1-DF78-1648-A2BE-F65D3E7156C7}"/>
+    <hyperlink ref="E2" r:id="rId31" xr:uid="{34BFB42F-030E-7C42-9BF0-01AF85EBE27C}"/>
+    <hyperlink ref="E5" r:id="rId32" xr:uid="{AB0C8EA8-5FD2-B54D-8982-0D1FF73E221B}"/>
+    <hyperlink ref="E3" r:id="rId33" xr:uid="{789C2AF0-BB44-AD49-9A56-AFD8950FE23A}"/>
+    <hyperlink ref="E4" r:id="rId34" xr:uid="{48EE5CE5-8663-0F40-BD45-F13F36505128}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
